--- a/调查问卷.xlsx
+++ b/调查问卷.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AC3779-A860-49AD-92D5-F9F655105464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="问卷" sheetId="4" r:id="rId1"/>
@@ -12,12 +13,20 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="171">
   <si>
     <t>学校</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -512,18 +521,70 @@
     <t>非常喜欢</t>
   </si>
   <si>
-    <t>Q2您支持孩子学乒乓的最大原因是什么？</t>
+    <t>选择</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选择</t>
+    <t>Q3 您平时有时间去了解孩子的乒乓学习情况吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q4 您愿意与老师沟通孩子的乒乓学习情况吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q5您认为乒乓老师应该用什么态度对待孩子？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q6乒乓课后作业是正式的家庭作业，是必须完成的。您赞同这种观点吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q7您清楚乒乓课的上课时间吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q8上课时间的变动会影响您的其他安排吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q9若能提供现场教学视频(甚至直播)，您愿意观看么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10. 您经常陪孩子一起进行乒乓球运动(旁观陪伴或亲自上阵)吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q11. 乒乓球相关职业，不会成为孩子的优先选择，您赞同这个观点吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q12. 如果发现孩子有很强的乒乓球天赋，您会支持它从事乒乓行业么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q15. 您是否担心乒乓教学质量？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q13. 乒乓球如果有机会让孩子升学加分甚至保送，你会支持孩子分配更多的精力学习乒乓球么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q14. 如果未来乒乓能给孩子带来稳定的收入，你会支持孩子从事乒乓相关职业么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q16. 您孩子对乒乓兴趣课的喜欢程度如何？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -634,7 +695,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,6 +770,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -744,6 +822,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -919,11 +1014,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -936,7 +1031,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>1</v>
@@ -976,10 +1071,10 @@
     </row>
     <row r="6" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1048,10 +1143,10 @@
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -1088,10 +1183,10 @@
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1144,10 +1239,10 @@
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1184,10 +1279,10 @@
     </row>
     <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1240,10 +1335,10 @@
     </row>
     <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1280,10 +1375,10 @@
     </row>
     <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1320,10 +1415,10 @@
     </row>
     <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1376,10 +1471,10 @@
     </row>
     <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1416,10 +1511,10 @@
     </row>
     <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1472,10 +1567,10 @@
     </row>
     <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1528,10 +1623,10 @@
     </row>
     <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1584,10 +1679,10 @@
     </row>
     <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1640,10 +1735,10 @@
     </row>
     <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1696,10 +1791,10 @@
     </row>
     <row r="96" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
@@ -1758,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S253"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -16612,7 +16707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17051,7 +17146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
